--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Selplg-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Selplg-Selp.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>88.31721</v>
+        <v>0.158418</v>
       </c>
       <c r="H2">
-        <v>264.95163</v>
+        <v>0.475254</v>
       </c>
       <c r="I2">
-        <v>0.9709320988649861</v>
+        <v>0.05652797120826585</v>
       </c>
       <c r="J2">
-        <v>0.970932098864986</v>
+        <v>0.05652797120826585</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.450162</v>
+        <v>1.343359</v>
       </c>
       <c r="N2">
-        <v>79.350486</v>
+        <v>4.030077</v>
       </c>
       <c r="O2">
-        <v>0.9821351879331711</v>
+        <v>0.736296379391111</v>
       </c>
       <c r="P2">
-        <v>0.9821351879331711</v>
+        <v>0.7362963793911109</v>
       </c>
       <c r="Q2">
-        <v>2336.00451188802</v>
+        <v>0.212812246062</v>
       </c>
       <c r="R2">
-        <v>21024.04060699218</v>
+        <v>1.915310214558</v>
       </c>
       <c r="S2">
-        <v>0.9535865793891114</v>
+        <v>0.04162134053497111</v>
       </c>
       <c r="T2">
-        <v>0.9535865793891113</v>
+        <v>0.0416213405349711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>88.31721</v>
+        <v>0.158418</v>
       </c>
       <c r="H3">
-        <v>264.95163</v>
+        <v>0.475254</v>
       </c>
       <c r="I3">
-        <v>0.9709320988649861</v>
+        <v>0.05652797120826585</v>
       </c>
       <c r="J3">
-        <v>0.970932098864986</v>
+        <v>0.05652797120826585</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.965802</v>
       </c>
       <c r="O3">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="P3">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="Q3">
-        <v>28.43231268414</v>
+        <v>0.05100014041199999</v>
       </c>
       <c r="R3">
-        <v>255.89081415726</v>
+        <v>0.459001263708</v>
       </c>
       <c r="S3">
-        <v>0.01160642955037682</v>
+        <v>0.009974492778017929</v>
       </c>
       <c r="T3">
-        <v>0.01160642955037683</v>
+        <v>0.009974492778017929</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>88.31721</v>
+        <v>0.158418</v>
       </c>
       <c r="H4">
-        <v>264.95163</v>
+        <v>0.475254</v>
       </c>
       <c r="I4">
-        <v>0.9709320988649861</v>
+        <v>0.05652797120826585</v>
       </c>
       <c r="J4">
-        <v>0.970932098864986</v>
+        <v>0.05652797120826585</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.477565</v>
       </c>
       <c r="O4">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="P4">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="Q4">
-        <v>14.05906946455</v>
+        <v>0.02521829739</v>
       </c>
       <c r="R4">
-        <v>126.53162518095</v>
+        <v>0.22696467651</v>
       </c>
       <c r="S4">
-        <v>0.005739089925497885</v>
+        <v>0.004932137895276809</v>
       </c>
       <c r="T4">
-        <v>0.005739089925497885</v>
+        <v>0.004932137895276809</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6.413473</v>
       </c>
       <c r="I5">
-        <v>0.02350257970069449</v>
+        <v>0.7628354881578912</v>
       </c>
       <c r="J5">
-        <v>0.02350257970069449</v>
+        <v>0.7628354881578912</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.450162</v>
+        <v>1.343359</v>
       </c>
       <c r="N5">
-        <v>79.350486</v>
+        <v>4.030077</v>
       </c>
       <c r="O5">
-        <v>0.9821351879331711</v>
+        <v>0.736296379391111</v>
       </c>
       <c r="P5">
-        <v>0.9821351879331711</v>
+        <v>0.7362963793911109</v>
       </c>
       <c r="Q5">
-        <v>56.54579994420867</v>
+        <v>2.871865558602333</v>
       </c>
       <c r="R5">
-        <v>508.912199497878</v>
+        <v>25.846790027421</v>
       </c>
       <c r="S5">
-        <v>0.02308271053125592</v>
+        <v>0.5616730080017061</v>
       </c>
       <c r="T5">
-        <v>0.02308271053125592</v>
+        <v>0.5616730080017059</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.413473</v>
       </c>
       <c r="I6">
-        <v>0.02350257970069449</v>
+        <v>0.7628354881578912</v>
       </c>
       <c r="J6">
-        <v>0.02350257970069449</v>
+        <v>0.7628354881578912</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.965802</v>
       </c>
       <c r="O6">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="P6">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="Q6">
         <v>0.6882383389273332</v>
@@ -818,10 +818,10 @@
         <v>6.194145050346</v>
       </c>
       <c r="S6">
-        <v>0.000280947592387878</v>
+        <v>0.1346041066892924</v>
       </c>
       <c r="T6">
-        <v>0.0002809475923878781</v>
+        <v>0.1346041066892924</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.413473</v>
       </c>
       <c r="I7">
-        <v>0.02350257970069449</v>
+        <v>0.7628354881578912</v>
       </c>
       <c r="J7">
-        <v>0.02350257970069449</v>
+        <v>0.7628354881578912</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.477565</v>
       </c>
       <c r="O7">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="P7">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="Q7">
         <v>0.3403166925827777</v>
@@ -880,10 +880,10 @@
         <v>3.062850233245</v>
       </c>
       <c r="S7">
-        <v>0.0001389215770506967</v>
+        <v>0.06655837346689274</v>
       </c>
       <c r="T7">
-        <v>0.0001389215770506967</v>
+        <v>0.06655837346689274</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5062286666666665</v>
+        <v>0.5062286666666667</v>
       </c>
       <c r="H8">
         <v>1.518686</v>
       </c>
       <c r="I8">
-        <v>0.005565321434319426</v>
+        <v>0.180636540633843</v>
       </c>
       <c r="J8">
-        <v>0.005565321434319426</v>
+        <v>0.180636540633843</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.450162</v>
+        <v>1.343359</v>
       </c>
       <c r="N8">
-        <v>79.350486</v>
+        <v>4.030077</v>
       </c>
       <c r="O8">
-        <v>0.9821351879331711</v>
+        <v>0.736296379391111</v>
       </c>
       <c r="P8">
-        <v>0.9821351879331711</v>
+        <v>0.7362963793911109</v>
       </c>
       <c r="Q8">
-        <v>13.38983024237733</v>
+        <v>0.6800468354246667</v>
       </c>
       <c r="R8">
-        <v>120.508472181396</v>
+        <v>6.120421518822001</v>
       </c>
       <c r="S8">
-        <v>0.005465898012803815</v>
+        <v>0.1330020308544339</v>
       </c>
       <c r="T8">
-        <v>0.005465898012803815</v>
+        <v>0.1330020308544339</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5062286666666665</v>
+        <v>0.5062286666666667</v>
       </c>
       <c r="H9">
         <v>1.518686</v>
       </c>
       <c r="I9">
-        <v>0.005565321434319426</v>
+        <v>0.180636540633843</v>
       </c>
       <c r="J9">
-        <v>0.005565321434319426</v>
+        <v>0.180636540633843</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.965802</v>
       </c>
       <c r="O9">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="P9">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="Q9">
-        <v>0.1629722195746666</v>
+        <v>0.1629722195746667</v>
       </c>
       <c r="R9">
         <v>1.466749976172</v>
       </c>
       <c r="S9">
-        <v>6.652732073451887E-05</v>
+        <v>0.0318737402295971</v>
       </c>
       <c r="T9">
-        <v>6.652732073451888E-05</v>
+        <v>0.0318737402295971</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5062286666666665</v>
+        <v>0.5062286666666667</v>
       </c>
       <c r="H10">
         <v>1.518686</v>
       </c>
       <c r="I10">
-        <v>0.005565321434319426</v>
+        <v>0.180636540633843</v>
       </c>
       <c r="J10">
-        <v>0.005565321434319426</v>
+        <v>0.180636540633843</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,22 +1054,22 @@
         <v>0.477565</v>
       </c>
       <c r="O10">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="P10">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="Q10">
-        <v>0.08058569773222221</v>
+        <v>0.08058569773222223</v>
       </c>
       <c r="R10">
-        <v>0.7252712795899999</v>
+        <v>0.72527127959</v>
       </c>
       <c r="S10">
-        <v>3.28961007810923E-05</v>
+        <v>0.01576076954981201</v>
       </c>
       <c r="T10">
-        <v>3.28961007810923E-05</v>
+        <v>0.01576076954981201</v>
       </c>
     </row>
   </sheetData>
